--- a/biology/Zoologie/Erebia_pawlowskii/Erebia_pawlowskii.xlsx
+++ b/biology/Zoologie/Erebia_pawlowskii/Erebia_pawlowskii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia pawlowskii est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Satyrinae et du genre Erebia.
 </t>
@@ -511,14 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Erebia pawlowskii a été nommé par Édouard Ménétries en 1859[1].
-Erebia pawlowskii a été considéré d'abord comme une sous-espèce de Erebia maurisius, Erebia maurisius pawlowskii[2].
-Nom vernaculaire
-Il se nomme en anglais Yellow-dotted Alpine[3].
-Sous-espèces
-Erebia pawlowskii sajana Staudinger, 1894[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia pawlowskii a été nommé par Édouard Ménétries en 1859.
+Erebia pawlowskii a été considéré d'abord comme une sous-espèce de Erebia maurisius, Erebia maurisius pawlowskii.
+</t>
         </is>
       </c>
     </row>
@@ -543,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erebia pawlowskii est un papillon marron foncé de taille moyenne, d'une envergure de 32 à 46 mm. Sur le dessus il est orné d'une bande submarginale de barres orange fusionnées en une bande orange. Le dessous est orné de la même bande aux antérieures, d'une bande crème aux postérieures.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme en anglais Yellow-dotted Alpine.
 </t>
         </is>
       </c>
@@ -574,17 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération en juin et juillet en Russie, en juillet et août au Canada[2],[4].
-Son cycle s'étend sur deux années et comporte deux hivernations, la première par des chenilles au premier stade et la seconde par des chenilles matures[2],[3].
-Plantes hôtes
-Les plantes hôtes de ses chenilles sont en Amérique du Nord des Carex[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Erebia pawlowskii sajana Staudinger, 1894.</t>
         </is>
       </c>
     </row>
@@ -609,16 +627,196 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia pawlowskii est un papillon marron foncé de taille moyenne, d'une envergure de 32 à 46 mm. Sur le dessus il est orné d'une bande submarginale de barres orange fusionnées en une bande orange. Le dessous est orné de la même bande aux antérieures, d'une bande crème aux postérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erebia_pawlowskii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_pawlowskii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération en juin et juillet en Russie, en juillet et août au Canada,.
+Son cycle s'étend sur deux années et comporte deux hivernations, la première par des chenilles au premier stade et la seconde par des chenilles matures,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erebia_pawlowskii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_pawlowskii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de ses chenilles sont en Amérique du Nord des Carex.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erebia_pawlowskii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_pawlowskii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Asie en Mongolie et en Yakoutie et en Amérique du Nord, en Alaska, au Canada dans le Yukon et le nord de la Colombie-Britannique et du Manitoba, aux USA dans les montagnes du Montana, du Wyoming et du Colorado[1],[3].
-Biotope
-Il réside dans les prés, les tourbières et la toundra humide[4]
-Protection
-Pas de statut de protection particulier[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Asie en Mongolie et en Yakoutie et en Amérique du Nord, en Alaska, au Canada dans le Yukon et le nord de la Colombie-Britannique et du Manitoba, aux USA dans les montagnes du Montana, du Wyoming et du Colorado,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erebia_pawlowskii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_pawlowskii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les prés, les tourbières et la toundra humide
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Erebia_pawlowskii</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_pawlowskii</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
